--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2605.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2605.xlsx
@@ -354,7 +354,7 @@
         <v>1.519391692313754</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.876186706338351</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2605.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2605.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7878803394249415</v>
+        <v>1.372720956802368</v>
       </c>
       <c r="B1">
-        <v>1.519391692313754</v>
+        <v>2.151985883712769</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.84665584564209</v>
       </c>
       <c r="D1">
-        <v>1.876186706338351</v>
+        <v>3.536446094512939</v>
       </c>
       <c r="E1">
-        <v>0.9312497656245478</v>
+        <v>1.25377345085144</v>
       </c>
     </row>
   </sheetData>
